--- a/biology/Botanique/Ceroxylon_parvifrons/Ceroxylon_parvifrons.xlsx
+++ b/biology/Botanique/Ceroxylon_parvifrons/Ceroxylon_parvifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceroxylon parvifrons est une espèce de plante phanérogame appartenant à la famille Arecaceae. Il est originaire du Venezuela (Mérida, Táchira) et de la Colombie à l'Équateur, ainsi qu'au Pérou et en Bolivie, on le trouve dans la Cordillère des Andes à une altitude de 1900-3200 mètres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceroxylon parvifrons est une espèce de plante phanérogame appartenant à la famille Arecaceae. Il est originaire du Venezuela (Mérida, Táchira) et de la Colombie à l'Équateur, ainsi qu'au Pérou et en Bolivie, on le trouve dans la Cordillère des Andes à une altitude de 1900-3200 mètres.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceroxylon parvifrons a un stipe solitaire atteignant 15 m, de  15–35 cm de diamètre de tronc, de couleur grise à blanche avec les cicatrices plus sombres des anciennes feuilles. Les feuilles pennées font de 2 à 4 m de long, avec 70-85 pinnules de chaque côté, insérées régulièrement sur un même plan, rigides et horizontales ; sur la partie centrale ces folioles font 50 cm de long et 4–5 cm de large, avec une couleur marron clair à blanc et un revêtement cireux. Les inflorescences courbes à pendulaires, de 2 m de long, sont ramifiées 2-3 fois. Les fruits sont globuleux à oblongs, de 15–25 mm de diamètre, lisses, de couleur orange-rouge[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceroxylon parvifrons a un stipe solitaire atteignant 15 m, de  15–35 cm de diamètre de tronc, de couleur grise à blanche avec les cicatrices plus sombres des anciennes feuilles. Les feuilles pennées font de 2 à 4 m de long, avec 70-85 pinnules de chaque côté, insérées régulièrement sur un même plan, rigides et horizontales ; sur la partie centrale ces folioles font 50 cm de long et 4–5 cm de large, avec une couleur marron clair à blanc et un revêtement cireux. Les inflorescences courbes à pendulaires, de 2 m de long, sont ramifiées 2-3 fois. Les fruits sont globuleux à oblongs, de 15–25 mm de diamètre, lisses, de couleur orange-rouge.
 </t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ceroxylon parvifrons a été décrit par Engel et H.wendl.. Publié par H. Wendland dans Les Palmiers 239. en 1878[3]. Mais avant cela par Franz Engel en 1865 dans Palmae novae columbianae[4] .
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ceroxylon parvifrons a été décrit par Engel et H.wendl.. Publié par H. Wendland dans Les Palmiers 239. en 1878. Mais avant cela par Franz Engel en 1865 dans Palmae novae columbianae .
 Étymologie
-Ceroxylon : Nom générique composé des mots grecs: kèròs = "cire" et xγlon = "bois", en référence à l'importante cire blanche qui se trouve sur les troncs [5].
+Ceroxylon : Nom générique composé des mots grecs: kèròs = "cire" et xγlon = "bois", en référence à l'importante cire blanche qui se trouve sur les troncs .
 parvifrons : Épithète spécifique latine
 Synonymie
 Ceroxylon latisectum Burret
 Ceroxylon mooreanum Galeano &amp; R.bernal
 Ceroxylon sclerophyllum Dugand
-Klopstockia parvifrons Engel[6],[7].</t>
+Klopstockia parvifrons Engel,.</t>
         </is>
       </c>
     </row>
@@ -580,9 +596,11 @@
           <t>Nom commun</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>palmier bouquet, palmier royal (Colombie), palmier de cire (Venezuela)[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>palmier bouquet, palmier royal (Colombie), palmier de cire (Venezuela).</t>
         </is>
       </c>
     </row>
